--- a/dev_spec.xlsx
+++ b/dev_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe/Desktop/Kevin_project/judicial_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A27EC51-1C4B-1B45-84FB-424F3615E5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A0437-6B7A-3142-BAAB-E9593D795E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{B38DC663-9C7A-704F-A42E-D86543C6E309}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>演算法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>根據說明文件，應該是可以自己訓練。 This takes about half an hour to train on a single K80 GPU and about one minute for the evaluation to run.  會先用 colab 跑一千個判決試試看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>候選判決書挑選方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步會以簡易的統計量組合與EDA，產出方案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能較快得到回饋，快速迭代未來的解決方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python script, Tableau (data visualization)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_similarity 腳本進行了初步探索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,20 +573,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF0C38-59BD-8449-A07E-A39AE9FDCEF6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:6" ht="32">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -577,26 +598,32 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32">
+    <row r="2" spans="1:6" ht="48">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="160">
+    <row r="3" spans="1:6" ht="160">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,14 +633,17 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="48">
+    <row r="4" spans="1:6" ht="48">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -624,39 +654,48 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32">
+    <row r="6" spans="1:6" ht="32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
+    <row r="7" spans="1:6" ht="32">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,22 +706,26 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="144">
+    <row r="8" spans="1:6" ht="144">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
